--- a/_site/Data/Multigenerational.xlsx
+++ b/_site/Data/Multigenerational.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgROFwF/u2gEKQow7PJoeTM+K13rw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -58,7 +58,7 @@
     <t>Please describe the caretaking you do for members of your household other than your children.</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/Multigenerational.xlsx
+++ b/_site/Data/Multigenerational.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Wp6USRga9B6b4B1doIArCXLPKsc8IpNCaBJshWVro6Y="/>
     </ext>
   </extLst>
 </workbook>
@@ -48,14 +48,16 @@
     <t>07/08/2022-07/15/2022</t>
   </si>
   <si>
-    <t>Are you the main caregiver for someone you live with other than your children?</t>
+    <t>[Display this question if "Who do you live with? Please select all that apply." does not = Other family member, please specify] 
+Are you the main caregiver for someone you live with other than your children?</t>
   </si>
   <si>
-    <t xml:space="preserve">• Yes 
+    <t xml:space="preserve">• Yes
 • No </t>
   </si>
   <si>
-    <t>Please describe the caretaking you do for members of your household other than your children.</t>
+    <t>[Display this question if "Are you the main caregiver for someone you live with other than your children?" = Yes]
+Please describe the caretaking you do for members of your household other than your children.</t>
   </si>
   <si>
     <t>Open ended response</t>
